--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02287433333333333</v>
+        <v>0.04724900000000001</v>
       </c>
       <c r="N2">
-        <v>0.068623</v>
+        <v>0.141747</v>
       </c>
       <c r="O2">
-        <v>0.1510056333069272</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="P2">
-        <v>0.1510056333069272</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="Q2">
-        <v>3.431960452879555</v>
+        <v>8.028344877593002</v>
       </c>
       <c r="R2">
-        <v>30.887644075916</v>
+        <v>72.25510389833701</v>
       </c>
       <c r="S2">
-        <v>0.06270520044568716</v>
+        <v>0.2078867187277538</v>
       </c>
       <c r="T2">
-        <v>0.06270520044568714</v>
+        <v>0.2078867187277539</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.04724900000000001</v>
+        <v>0.05369133333333334</v>
       </c>
       <c r="N3">
-        <v>0.141747</v>
+        <v>0.161074</v>
       </c>
       <c r="O3">
-        <v>0.3119157644573541</v>
+        <v>0.5319115913361359</v>
       </c>
       <c r="P3">
-        <v>0.3119157644573541</v>
+        <v>0.531911591336136</v>
       </c>
       <c r="Q3">
-        <v>7.089024063569334</v>
+        <v>9.122998178539335</v>
       </c>
       <c r="R3">
-        <v>63.801216572124</v>
+        <v>82.10698360685402</v>
       </c>
       <c r="S3">
-        <v>0.1295232509155067</v>
+        <v>0.236231774445697</v>
       </c>
       <c r="T3">
-        <v>0.1295232509155067</v>
+        <v>0.2362317744456971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>68.382243</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>205.146729</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08135666666666667</v>
+        <v>0.04724900000000001</v>
       </c>
       <c r="N4">
-        <v>0.24407</v>
+        <v>0.141747</v>
       </c>
       <c r="O4">
-        <v>0.5370786022357187</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="P4">
-        <v>0.5370786022357187</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="Q4">
-        <v>12.20638252093778</v>
+        <v>3.230992599507001</v>
       </c>
       <c r="R4">
-        <v>109.85744268844</v>
+        <v>29.078933395563</v>
       </c>
       <c r="S4">
-        <v>0.2230222851344136</v>
+        <v>0.08366362681052937</v>
       </c>
       <c r="T4">
-        <v>0.2230222851344136</v>
+        <v>0.08366362681052938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J5">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02287433333333333</v>
+        <v>0.05369133333333334</v>
       </c>
       <c r="N5">
-        <v>0.068623</v>
+        <v>0.161074</v>
       </c>
       <c r="O5">
-        <v>0.1510056333069272</v>
+        <v>0.5319115913361359</v>
       </c>
       <c r="P5">
-        <v>0.1510056333069272</v>
+        <v>0.531911591336136</v>
       </c>
       <c r="Q5">
-        <v>1.564198220463</v>
+        <v>3.671533802994001</v>
       </c>
       <c r="R5">
-        <v>14.077783984167</v>
+        <v>33.043804226946</v>
       </c>
       <c r="S5">
-        <v>0.02857939778082921</v>
+        <v>0.09507104224342813</v>
       </c>
       <c r="T5">
-        <v>0.0285793977808292</v>
+        <v>0.09507104224342816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>68.382243</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H6">
-        <v>205.146729</v>
+        <v>159.823902</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,27 +809,27 @@
         <v>0.141747</v>
       </c>
       <c r="O6">
-        <v>0.3119157644573541</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="P6">
-        <v>0.3119157644573541</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="Q6">
-        <v>3.230992599507001</v>
+        <v>2.517173181866</v>
       </c>
       <c r="R6">
-        <v>29.078933395563</v>
+        <v>22.654558636794</v>
       </c>
       <c r="S6">
-        <v>0.05903332552116926</v>
+        <v>0.06517991955080411</v>
       </c>
       <c r="T6">
-        <v>0.05903332552116925</v>
+        <v>0.06517991955080414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.382243</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H7">
-        <v>205.146729</v>
+        <v>159.823902</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08135666666666667</v>
+        <v>0.05369133333333334</v>
       </c>
       <c r="N7">
-        <v>0.24407</v>
+        <v>0.161074</v>
       </c>
       <c r="O7">
-        <v>0.5370786022357187</v>
+        <v>0.5319115913361359</v>
       </c>
       <c r="P7">
-        <v>0.5370786022357187</v>
+        <v>0.531911591336136</v>
       </c>
       <c r="Q7">
-        <v>5.56335134967</v>
+        <v>2.860386132305333</v>
       </c>
       <c r="R7">
-        <v>50.07016214703</v>
+        <v>25.743475190748</v>
       </c>
       <c r="S7">
-        <v>0.1016477509926262</v>
+        <v>0.07406710802857361</v>
       </c>
       <c r="T7">
-        <v>0.1016477509926261</v>
+        <v>0.07406710802857364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.15794</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H8">
-        <v>114.47382</v>
+        <v>273.054848</v>
       </c>
       <c r="I8">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J8">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02287433333333333</v>
+        <v>0.04724900000000001</v>
       </c>
       <c r="N8">
-        <v>0.068623</v>
+        <v>0.141747</v>
       </c>
       <c r="O8">
-        <v>0.1510056333069272</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="P8">
-        <v>0.1510056333069272</v>
+        <v>0.4680884086638641</v>
       </c>
       <c r="Q8">
-        <v>0.8728374388733334</v>
+        <v>4.300522837717334</v>
       </c>
       <c r="R8">
-        <v>7.85553694986</v>
+        <v>38.704705539456</v>
       </c>
       <c r="S8">
-        <v>0.01594757495388114</v>
+        <v>0.1113581435747768</v>
       </c>
       <c r="T8">
-        <v>0.01594757495388114</v>
+        <v>0.1113581435747768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.15794</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H9">
-        <v>114.47382</v>
+        <v>273.054848</v>
       </c>
       <c r="I9">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J9">
-        <v>0.105609139239639</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,276 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04724900000000001</v>
+        <v>0.05369133333333334</v>
       </c>
       <c r="N9">
-        <v>0.141747</v>
+        <v>0.161074</v>
       </c>
       <c r="O9">
-        <v>0.3119157644573541</v>
+        <v>0.5319115913361359</v>
       </c>
       <c r="P9">
-        <v>0.3119157644573541</v>
+        <v>0.531911591336136</v>
       </c>
       <c r="Q9">
-        <v>1.80292450706</v>
+        <v>4.886892954083556</v>
       </c>
       <c r="R9">
-        <v>16.22632056354</v>
+        <v>43.982036586752</v>
       </c>
       <c r="S9">
-        <v>0.03294115539961515</v>
+        <v>0.126541666618437</v>
       </c>
       <c r="T9">
-        <v>0.03294115539961515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>38.15794</v>
-      </c>
-      <c r="H10">
-        <v>114.47382</v>
-      </c>
-      <c r="I10">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="J10">
-        <v>0.105609139239639</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.08135666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.24407</v>
-      </c>
-      <c r="O10">
-        <v>0.5370786022357187</v>
-      </c>
-      <c r="P10">
-        <v>0.5370786022357187</v>
-      </c>
-      <c r="Q10">
-        <v>3.104402805266667</v>
-      </c>
-      <c r="R10">
-        <v>27.9396252474</v>
-      </c>
-      <c r="S10">
-        <v>0.0567204088861427</v>
-      </c>
-      <c r="T10">
-        <v>0.05672040888614269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>104.737245</v>
-      </c>
-      <c r="H11">
-        <v>314.211735</v>
-      </c>
-      <c r="I11">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J11">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02287433333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.068623</v>
-      </c>
-      <c r="O11">
-        <v>0.1510056333069272</v>
-      </c>
-      <c r="P11">
-        <v>0.1510056333069272</v>
-      </c>
-      <c r="Q11">
-        <v>2.395794654545</v>
-      </c>
-      <c r="R11">
-        <v>21.562151890905</v>
-      </c>
-      <c r="S11">
-        <v>0.04377346012652971</v>
-      </c>
-      <c r="T11">
-        <v>0.0437734601265297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>104.737245</v>
-      </c>
-      <c r="H12">
-        <v>314.211735</v>
-      </c>
-      <c r="I12">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J12">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.04724900000000001</v>
-      </c>
-      <c r="N12">
-        <v>0.141747</v>
-      </c>
-      <c r="O12">
-        <v>0.3119157644573541</v>
-      </c>
-      <c r="P12">
-        <v>0.3119157644573541</v>
-      </c>
-      <c r="Q12">
-        <v>4.948730089005001</v>
-      </c>
-      <c r="R12">
-        <v>44.53857080104501</v>
-      </c>
-      <c r="S12">
-        <v>0.09041803262106302</v>
-      </c>
-      <c r="T12">
-        <v>0.090418032621063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>104.737245</v>
-      </c>
-      <c r="H13">
-        <v>314.211735</v>
-      </c>
-      <c r="I13">
-        <v>0.289879649970129</v>
-      </c>
-      <c r="J13">
-        <v>0.2898796499701289</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.08135666666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.24407</v>
-      </c>
-      <c r="O13">
-        <v>0.5370786022357187</v>
-      </c>
-      <c r="P13">
-        <v>0.5370786022357187</v>
-      </c>
-      <c r="Q13">
-        <v>8.521073129050002</v>
-      </c>
-      <c r="R13">
-        <v>76.68965816145001</v>
-      </c>
-      <c r="S13">
-        <v>0.1556881572225363</v>
-      </c>
-      <c r="T13">
-        <v>0.1556881572225362</v>
+        <v>0.1265416666184371</v>
       </c>
     </row>
   </sheetData>
